--- a/results.xlsx
+++ b/results.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>學校名稱</t>
+          <t>學校(或才藝教室)名稱</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>學校地址</t>
+          <t>學校(或才藝教室)地址</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>就讀學校</t>
+          <t>就讀學校(社會組免填)</t>
         </is>
       </c>
     </row>
